--- a/artfynd/A 3798-2026 artfynd.xlsx
+++ b/artfynd/A 3798-2026 artfynd.xlsx
@@ -1882,7 +1882,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131187610</v>
+        <v>131187603</v>
       </c>
       <c r="B12" t="n">
         <v>57884</v>
@@ -1917,10 +1917,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>440688</v>
+        <v>440657</v>
       </c>
       <c r="R12" t="n">
-        <v>7056887</v>
+        <v>7057019</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1984,7 +1984,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131187603</v>
+        <v>131187610</v>
       </c>
       <c r="B13" t="n">
         <v>57884</v>
@@ -2019,10 +2019,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>440657</v>
+        <v>440688</v>
       </c>
       <c r="R13" t="n">
-        <v>7057019</v>
+        <v>7056887</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2188,7 +2188,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131187607</v>
+        <v>131187606</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2223,10 +2223,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>440597</v>
+        <v>440572</v>
       </c>
       <c r="R15" t="n">
-        <v>7056955</v>
+        <v>7056973</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2290,7 +2290,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131187606</v>
+        <v>131187607</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>440572</v>
+        <v>440597</v>
       </c>
       <c r="R16" t="n">
-        <v>7056973</v>
+        <v>7056955</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">

--- a/artfynd/A 3798-2026 artfynd.xlsx
+++ b/artfynd/A 3798-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131154928</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>131154929</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>131154930</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>131154931</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
         <v>131154927</v>
       </c>
       <c r="B8" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1588,7 +1588,7 @@
         <v>131187624</v>
       </c>
       <c r="B9" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
